--- a/assets/new_schedule.xlsx
+++ b/assets/new_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhar8696/Sydney Uni Dropbox/Januar Harianto/projects/BIOL2022/BEDA-handbook/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDD7BEF-AB4F-9D4B-9729-9C7AFF725A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161D3D7-1B7B-4E48-8078-85474A1BC71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16460" yWindow="8420" windowWidth="41800" windowHeight="23860" xr2:uid="{E0623210-8FA2-954F-AA17-612687221F7F}"/>
   </bookViews>
